--- a/Big Bang/Batch Upload/Teacher/Class List (General).xlsx
+++ b/Big Bang/Batch Upload/Teacher/Class List (General).xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>School</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Branch</t>
-  </si>
-  <si>
     <t>Last_name</t>
   </si>
   <si>
@@ -40,6 +37,147 @@
   </si>
   <si>
     <t>Middle_initial</t>
+  </si>
+  <si>
+    <t>PUP</t>
+  </si>
+  <si>
+    <t>TUP</t>
+  </si>
+  <si>
+    <t>BatStateU</t>
+  </si>
+  <si>
+    <t>CvSU</t>
+  </si>
+  <si>
+    <t>TarSU</t>
+  </si>
+  <si>
+    <t>DMMMSU</t>
+  </si>
+  <si>
+    <t>PangSu</t>
+  </si>
+  <si>
+    <t>BengSU</t>
+  </si>
+  <si>
+    <t>BulSU</t>
+  </si>
+  <si>
+    <t>USEP</t>
+  </si>
+  <si>
+    <t>WVCST</t>
+  </si>
+  <si>
+    <t>WVSU</t>
+  </si>
+  <si>
+    <t>NorSU</t>
+  </si>
+  <si>
+    <t>CHMSC</t>
+  </si>
+  <si>
+    <t>NIPSC</t>
+  </si>
+  <si>
+    <t>LSPU-Sta Cruz</t>
+  </si>
+  <si>
+    <t>LSPU-San Pablo</t>
+  </si>
+  <si>
+    <t>LSPU-Los Banos</t>
+  </si>
+  <si>
+    <t>LSPU-Siniloan</t>
+  </si>
+  <si>
+    <t>BatStateU-Main I</t>
+  </si>
+  <si>
+    <t>BatStateU-Main II</t>
+  </si>
+  <si>
+    <t>BatStateU-Balayan</t>
+  </si>
+  <si>
+    <t>BatStateU-Lemery</t>
+  </si>
+  <si>
+    <t>BatStateU-Lipa</t>
+  </si>
+  <si>
+    <t>BatStateU-Lobo</t>
+  </si>
+  <si>
+    <t>BatStateU-Malvar</t>
+  </si>
+  <si>
+    <t>BatStateU-Rosario</t>
+  </si>
+  <si>
+    <t>BatStateU-San Juan</t>
+  </si>
+  <si>
+    <t>BatStateU-Nasugbu</t>
+  </si>
+  <si>
+    <t>CvSU-Indang</t>
+  </si>
+  <si>
+    <t>CvSU-Rosario</t>
+  </si>
+  <si>
+    <t>CvSU-Carmona</t>
+  </si>
+  <si>
+    <t>CvSU-Naic</t>
+  </si>
+  <si>
+    <t>CvSU-Cavite City</t>
+  </si>
+  <si>
+    <t>CvSU-Tanza</t>
+  </si>
+  <si>
+    <t>CvSU-Trece Martires</t>
+  </si>
+  <si>
+    <t>CvSU-Imus</t>
+  </si>
+  <si>
+    <t>CvSU-Silang</t>
+  </si>
+  <si>
+    <t>CvSU-Bacoor</t>
+  </si>
+  <si>
+    <t>CvSU-General Trias</t>
+  </si>
+  <si>
+    <t>PNU-Main</t>
+  </si>
+  <si>
+    <t>BulSU-Malolos</t>
+  </si>
+  <si>
+    <t>BulSU-Bustos</t>
+  </si>
+  <si>
+    <t>BulSU-Meneses</t>
+  </si>
+  <si>
+    <t>BulSU-Sarmiento</t>
+  </si>
+  <si>
+    <t>BulSU-Hagonoy</t>
+  </si>
+  <si>
+    <t>School List</t>
   </si>
 </sst>
 </file>
@@ -144,9 +282,9 @@
     <tableColumn id="6" name="First_name"/>
     <tableColumn id="1" name="Middle_initial"/>
     <tableColumn id="2" name="School"/>
-    <tableColumn id="3" name="Branch"/>
     <tableColumn id="4" name="Contact Details"/>
     <tableColumn id="5" name="Email"/>
+    <tableColumn id="3" name="School List"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -439,47 +577,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="1" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 45 characters long" prompt="Text should only contain 45 characters_x000a_" sqref="A3:G1048576 A1:G1">
+  <dataValidations count="2">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 45 characters long" prompt="Text should only contain 45 characters_x000a_" sqref="A1:C1 A3:C1048576 E3:F1048576 E1:F1">
       <formula1>1</formula1>
       <formula2>45</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 45 characters long" prompt="Text should only contain 45 characters_x000a_" sqref="D1:D1048576">
+      <formula1>$G$2:$G$47</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -491,12 +864,155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:AU4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AU4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
